--- a/proseminar/11/results/results.xlsx
+++ b/proseminar/11/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Innsbruck\Studium\1. Semester\Parallel Systems\proseminar\11\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA0CF105-7722-48E5-A85A-87C82FC214BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D897753B-FF66-4F71-B0BF-FDF27D2990B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{78C12221-C254-42A9-A14B-5BACE2CC1A62}"/>
   </bookViews>
@@ -152,315 +152,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Speedup</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$D$2:$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>real_omp_1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>real_omp_2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>real_omp_4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>real_omp_8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$D$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.91407293198311101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3876434434135414</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3706146543626525</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2152875060031143</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA65-4D67-BAA6-388E65DED854}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="976330063"/>
-        <c:axId val="911481679"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="976330063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="911481679"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="911481679"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="976330063"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Efficiency</a:t>
             </a:r>
           </a:p>
@@ -549,10 +240,10 @@
                   <c:v>0.6938217217067707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34265366359066313</c:v>
+                  <c:v>0.475481109643213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15191093825038929</c:v>
+                  <c:v>0.21079821744595206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,6 +426,314 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Tabelle1!$D$2,Tabelle1!$E$2,Tabelle1!$F$2,Tabelle1!$G$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>real_omp_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>real_omp_2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>real_omp_4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>real_omp_8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$D$4,Tabelle1!$E$4,Tabelle1!$F$4,Tabelle1!$G$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.91407293198311101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3876434434135414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.901924438572852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6863857395676165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-347C-4893-82C4-E528562D4AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="518017504"/>
+        <c:axId val="516498336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="518017504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516498336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516498336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518017504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1332,7 +1331,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1440,11 +1439,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1455,11 +1449,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1491,9 +1480,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1851,23 +1837,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3">
+        <xdr:cNvPr id="5" name="Diagramm 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69089E81-481C-4EFA-BD33-DD234709173A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D0FDF5-9E08-4E12-AB09-9CE5E3F763AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,23 +1873,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>690562</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4">
+        <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D0FDF5-9E08-4E12-AB09-9CE5E3F763AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33797E13-5F6A-4746-BFC7-EEFDEF162836}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,11 +2210,12 @@
   <dimension ref="B2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2285,12 +2272,12 @@
         <v>1.3876434434135414</v>
       </c>
       <c r="F4" s="1">
-        <f>E3/F3</f>
-        <v>1.3706146543626525</v>
+        <f>C3/F3</f>
+        <v>1.901924438572852</v>
       </c>
       <c r="G4" s="1">
-        <f>E3/G3</f>
-        <v>1.2152875060031143</v>
+        <f>C3/G3</f>
+        <v>1.6863857395676165</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21" x14ac:dyDescent="0.35">
@@ -2308,11 +2295,11 @@
       </c>
       <c r="F5" s="1">
         <f>F4/4</f>
-        <v>0.34265366359066313</v>
+        <v>0.475481109643213</v>
       </c>
       <c r="G5" s="1">
         <f>G4/8</f>
-        <v>0.15191093825038929</v>
+        <v>0.21079821744595206</v>
       </c>
     </row>
   </sheetData>
